--- a/Pivot Table.xlsx
+++ b/Pivot Table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,138 +441,42 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>AFFORDABLE AND CLEAN ENERGY</t>
+          <t>CLEAN WATER AND SANITATION</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>CLEAN WATER AND SANITATION</t>
+          <t>DECENT WORK AND ECONOMIC GROWTH</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>CLIMATE ACTION</t>
+          <t>LIFE ON LAND</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>DECENT WORK AND ECONOMIC GROWTH</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>GENDER EQUALITY</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>GOOD HEALTH AND WELL-BEING</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>LIFE BELOW WATER</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>LIFE ON LAND</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>NO POVERTY</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>PARTNERSHIPS FOR THE GOAL</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>PEACE JUSTICE AND STRONG INSTITUTIONS</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>QUALITY EDUCATION</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>REDUCED INEQUALITIES</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
           <t>RESPONSIBLE CONSUMPTION AND PRODUCTION</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SUSTAINABLE CITIES AND COMMUNITIES</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>ZERO HUNGER</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Apple Annual Report.pdf</t>
+          <t>Amazon Inc Annual Report.pdf</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>14</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Pivot Table.xlsx
+++ b/Pivot Table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,42 +441,215 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>CLEAN WATER AND SANITATION</t>
+          <t>Decentralized Finance/Marketplaces</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>DECENT WORK AND ECONOMIC GROWTH</t>
+          <t>Digital investment</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>LIFE ON LAND</t>
+          <t>Gaming</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>RESPONSIBLE CONSUMPTION AND PRODUCTION</t>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Sustainability</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Telecom Infra</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Telecom services</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Amazon Inc Annual Report.pdf</t>
+          <t>Apple Annual Report.pdf</t>
         </is>
       </c>
       <c r="B2" t="n">
+        <v>74</v>
+      </c>
+      <c r="C2" t="n">
+        <v>49</v>
+      </c>
+      <c r="D2" t="n">
+        <v>109</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>42</v>
+      </c>
+      <c r="G2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="H2" t="n">
+        <v>85</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_01.pdf</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>81</v>
+      </c>
+      <c r="C3" t="n">
+        <v>71</v>
+      </c>
+      <c r="D3" t="n">
+        <v>500</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>75</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>20</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4885</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_02.pdf</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>43</v>
+      </c>
+      <c r="C4" t="n">
+        <v>47</v>
+      </c>
+      <c r="D4" t="n">
+        <v>486</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>112</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>60</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4698</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_03.pdf</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>74</v>
+      </c>
+      <c r="C5" t="n">
+        <v>53</v>
+      </c>
+      <c r="D5" t="n">
+        <v>590</v>
+      </c>
+      <c r="E5" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2</v>
+      <c r="F5" t="n">
+        <v>42</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5008</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_04.pdf</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>55</v>
+      </c>
+      <c r="C6" t="n">
+        <v>63</v>
+      </c>
+      <c r="D6" t="n">
+        <v>598</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>27</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>19</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4928</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Ukraine_Russia_05.pdf</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>27</v>
+      </c>
+      <c r="C7" t="n">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>201</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>59</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1832</v>
       </c>
     </row>
   </sheetData>
